--- a/InventaireResultat.xlsx
+++ b/InventaireResultat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Desktop\Dev\Github\ProjetTutS4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5A7BA-732B-4557-A40A-8650E6FBBB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874E20A-214A-4B4C-BC6E-34B1E5D4356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0230763-63F7-4CBD-A616-10AE194F2AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t xml:space="preserve">Tout les test seront effectué dans les memes conditions sur la meme machine : HONOR MateView 14, I7 11390h, 16Go de Ram </t>
   </si>
@@ -131,10 +131,25 @@
     <t>Cette combinaison (Voisin le plus proche + décroisement) est un tout petit peu plus rapide que la meme combinaison avec la simple permutation (a l'exception pour 777 communes qui est bien plus rapides). Par contre, les resultat sont legerement moins bon dès 20 villes. On peut donc dire que cette combinaison est moins performante que celle avec la simple permutation</t>
   </si>
   <si>
-    <t>CRASH</t>
+    <t>env 8min</t>
   </si>
   <si>
-    <t>MEMORY OVERFLOW</t>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Toute les possibilités n'ont pas été testé, arret du chrono</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>crash au bout de 8h</t>
   </si>
 </sst>
 </file>
@@ -199,18 +214,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -221,12 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +231,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,7 +1268,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Temps d'execution</c:v>
+            <c:v>3,3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1267,64 +1282,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Feuil1!$C$29:$J$29</c:f>
@@ -1360,6 +1317,64 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Feuil1!$C$61:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-718E-467A-BA09-03238AD35C06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>Feuil1!$C$53:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1394,14 +1409,14 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3E3-4A4A-BBE7-DC805B3C76CE}"/>
+              <c16:uniqueId val="{00000001-4F4A-4542-8237-386FBA0A0433}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1703,7 +1718,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Temps d'execution</c:v>
+            <c:v>3,2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1717,64 +1732,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Feuil1!$C$29:$J$29</c:f>
@@ -1810,7 +1767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$61:$J$61</c:f>
+              <c:f>Feuil1!$C$79:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1824,19 +1781,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27900000000000003</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.165</c:v>
+                  <c:v>1.077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,14 +1801,72 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-718E-467A-BA09-03238AD35C06}"/>
+              <c16:uniqueId val="{00000000-753E-46DE-99D6-0489690986A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3,3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$87:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A975-4935-8CE9-39B5EAB9D9B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2101,906 +2116,6 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13545957482631549"/>
-          <c:y val="4.9488259149809135E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.1001684169343446E-2"/>
-          <c:y val="0.23644074300511611"/>
-          <c:w val="0.88500836245309655"/>
-          <c:h val="0.57698360480447441"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Temps d'execution</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$C$29:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$C$79:$J$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.077</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-753E-46DE-99D6-0489690986A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1677667887"/>
-        <c:axId val="1677663311"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1677667887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1677663311"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1677663311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1677667887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Temps</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> de recherche en fonction du nombre de ville</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13545957482631549"/>
-          <c:y val="4.9488259149809135E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.1001684169343446E-2"/>
-          <c:y val="0.23644074300511611"/>
-          <c:w val="0.88500836245309655"/>
-          <c:h val="0.57698360480447441"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Temps d'execution</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$C$29:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$C$87:$J$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0029999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D375-4398-9A31-E8EBA98A0EBB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1677667887"/>
-        <c:axId val="1677663311"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1677667887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1677663311"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1677663311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1677667887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Temps</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> de recherche en fonction du nombre de ville</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13545957482631549"/>
           <c:y val="4.9488259149809127E-3"/>
         </c:manualLayout>
       </c:layout>
@@ -3040,8 +2155,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.1001684169343446E-2"/>
-          <c:y val="0.23644074300511611"/>
+          <c:x val="7.3558873144300596E-2"/>
+          <c:y val="0.2309762422063934"/>
           <c:w val="0.88500836245309655"/>
           <c:h val="0.57698360480447441"/>
         </c:manualLayout>
@@ -3409,7 +2524,7 @@
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.28199999999999997</c:v>
@@ -3431,7 +2546,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3833,86 +2947,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5926,1012 +4960,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7513,22 +5541,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>101471</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>233266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>397621</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119841</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5">
+        <xdr:cNvPr id="7" name="Graphique 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38920C5-868B-43E8-B997-B70C7762678B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DB78BA-186A-4CE4-BBDE-3C4F3DA6BD7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7550,23 +5578,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48014</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>327349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>280988</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:colOff>348052</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>59581</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 6">
+        <xdr:cNvPr id="8" name="Graphique 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DB78BA-186A-4CE4-BBDE-3C4F3DA6BD7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0281E9DC-05B2-405B-8B99-BFB1C6EB8F1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7588,92 +5616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311020</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>135488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0281E9DC-05B2-405B-8B99-BFB1C6EB8F1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Graphique 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB911A2-4CFD-4F28-97CC-095313FB7B20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>97194</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>174950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7694,7 +5646,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8000,10 +5952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B893D84-58B6-4D9A-9C4D-097CBAEB836E}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,7 +5965,7 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
@@ -8025,55 +5977,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -8103,30 +6055,30 @@
       <c r="L4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>2606</v>
       </c>
       <c r="D6">
@@ -8150,25 +6102,25 @@
       <c r="J6">
         <v>290731</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
@@ -8186,20 +6138,20 @@
       <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="C8" s="5">
+      <c r="A8" s="8"/>
+      <c r="C8" s="1">
         <v>2606</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>4768</v>
       </c>
       <c r="E8">
@@ -8220,13 +6172,13 @@
       <c r="J8">
         <v>290408</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -8253,19 +6205,19 @@
       <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D10">
@@ -8289,13 +6241,13 @@
       <c r="J10">
         <v>287541</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -8319,43 +6271,43 @@
       <c r="J11" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16">
@@ -8382,30 +6334,30 @@
       <c r="J16">
         <v>777</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="12"/>
+      <c r="N16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="9">
         <v>2606</v>
       </c>
       <c r="D18">
@@ -8429,23 +6381,23 @@
       <c r="J18">
         <v>22961</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="9">
         <v>0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19">
@@ -8465,17 +6417,17 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C29">
@@ -8502,30 +6454,30 @@
       <c r="J29">
         <v>777</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="4" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="2">
         <v>2974</v>
       </c>
       <c r="D31">
@@ -8549,23 +6501,23 @@
       <c r="J31">
         <v>22208</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
     </row>
     <row r="32" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="9">
         <v>0</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32">
@@ -8577,27 +6529,27 @@
       <c r="H32">
         <v>0.123</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="5">
         <v>0.23400000000000001</v>
       </c>
       <c r="J32">
         <v>0.91300000000000003</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
     </row>
     <row r="43" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8607,22 +6559,22 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="49" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C50">
@@ -8649,30 +6601,30 @@
       <c r="J50">
         <v>777</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="4" t="s">
+      <c r="M50" s="12"/>
+      <c r="N50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
     </row>
     <row r="52" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="2">
         <v>2606</v>
       </c>
       <c r="D52">
@@ -8696,23 +6648,23 @@
       <c r="J52">
         <v>22358</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="9">
         <v>0</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="F53">
@@ -8724,46 +6676,46 @@
       <c r="H53">
         <v>0.32200000000000001</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="5">
         <v>0.63100000000000001</v>
       </c>
       <c r="J53">
         <v>2.3479999999999999</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
     </row>
     <row r="57" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C58">
@@ -8790,30 +6742,30 @@
       <c r="J58">
         <v>777</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="4" t="s">
+      <c r="M58" s="12"/>
+      <c r="N58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
     </row>
     <row r="60" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="2">
         <v>2606</v>
       </c>
       <c r="D60">
@@ -8837,23 +6789,23 @@
       <c r="J60">
         <v>21915</v>
       </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
     </row>
     <row r="61" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="9">
         <v>0</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="1">
         <v>0</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61">
@@ -8865,63 +6817,63 @@
       <c r="H61">
         <v>0.27900000000000003</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="5">
         <v>0.56599999999999995</v>
       </c>
       <c r="J61">
         <v>2.165</v>
       </c>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
     </row>
     <row r="73" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="75" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C76">
@@ -8948,30 +6900,30 @@
       <c r="J76">
         <v>777</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M76" s="1"/>
-      <c r="N76" s="4" t="s">
+      <c r="M76" s="12"/>
+      <c r="N76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
     </row>
     <row r="78" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="2">
         <v>2606</v>
       </c>
       <c r="D78">
@@ -8995,23 +6947,23 @@
       <c r="J78">
         <v>22961</v>
       </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
     </row>
     <row r="79" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="9">
         <v>0</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="1">
         <v>0</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="1">
         <v>0</v>
       </c>
       <c r="F79">
@@ -9023,46 +6975,46 @@
       <c r="H79">
         <v>0.32</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="5">
         <v>0.61899999999999999</v>
       </c>
       <c r="J79">
         <v>1.077</v>
       </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
     </row>
     <row r="83" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C84">
@@ -9089,30 +7041,30 @@
       <c r="J84">
         <v>777</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M84" s="1"/>
-      <c r="N84" s="4" t="s">
+      <c r="M84" s="12"/>
+      <c r="N84" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
     </row>
     <row r="86" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="2">
         <v>2974</v>
       </c>
       <c r="D86">
@@ -9136,81 +7088,81 @@
       <c r="J86">
         <v>22202</v>
       </c>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
     </row>
     <row r="87" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="9">
         <v>0</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="1">
         <v>0</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="1">
         <v>0</v>
       </c>
       <c r="F87">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G87">
-        <v>1.2999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H87">
         <v>0.28199999999999997</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="5">
         <v>0.55800000000000005</v>
       </c>
       <c r="J87">
         <v>1.0029999999999999</v>
       </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
     </row>
     <row r="95" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C96">
@@ -9231,18 +7183,12 @@
       <c r="H96">
         <v>15</v>
       </c>
-      <c r="I96">
-        <v>16</v>
-      </c>
-      <c r="J96">
-        <v>17</v>
-      </c>
     </row>
     <row r="98" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="2">
         <v>2606</v>
       </c>
       <c r="D98">
@@ -9255,57 +7201,72 @@
         <v>2763</v>
       </c>
       <c r="G98">
-        <v>3089</v>
-      </c>
-      <c r="H98">
-        <v>3557</v>
-      </c>
-      <c r="I98">
-        <v>3956</v>
-      </c>
-      <c r="J98" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="9">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2.694</v>
+      </c>
+      <c r="E99" s="1">
+        <v>34.042999999999999</v>
+      </c>
+      <c r="F99" s="9">
+        <v>487.63200000000001</v>
+      </c>
+      <c r="G99" s="9">
+        <v>7200</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="15">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="D99" s="5">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="E99" s="5">
-        <v>30.311</v>
-      </c>
-      <c r="F99" s="15">
-        <v>128.54599999999999</v>
-      </c>
-      <c r="G99" s="15">
-        <v>89.73</v>
-      </c>
-      <c r="H99" s="15">
-        <v>149.50299999999999</v>
-      </c>
-      <c r="I99" s="9">
-        <v>159.10400000000001</v>
-      </c>
-      <c r="J99" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q99" t="s">
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q106" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:R91"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N50:R56"/>
-    <mergeCell ref="N58:R65"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:R12"/>
+    <mergeCell ref="N4:R7"/>
     <mergeCell ref="A73:F73"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:R82"/>
@@ -9314,14 +7275,11 @@
     <mergeCell ref="N29:R33"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="L50:M50"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:R12"/>
-    <mergeCell ref="N4:R7"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:R91"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N50:R56"/>
+    <mergeCell ref="N58:R65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
